--- a/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
+++ b/Database/Norbert/Australia_Ungaria_Israel_worldometer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E58FE9-95D5-4B2B-A77C-247D64B4A59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D10421-E7A7-4EEB-97F8-AC0B1AF7964B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Austria</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>26-2-apr-mai</t>
+  </si>
+  <si>
+    <t>3-9-mai</t>
+  </si>
+  <si>
+    <t>10-16-mai</t>
+  </si>
+  <si>
+    <t>17-23-mai</t>
+  </si>
+  <si>
+    <t>24-30 mai</t>
   </si>
 </sst>
 </file>
@@ -888,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB445"/>
+  <dimension ref="A1:AB473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA66" sqref="AA66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA70" sqref="AA70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,39 +1397,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1486,16 +1501,16 @@
       <c r="W2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1567,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="20"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1651,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="17">
-        <f t="shared" ref="AA4:AA39" ca="1" si="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ref="AA4:AA38" ca="1" si="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
         <v>0</v>
       </c>
     </row>
@@ -4640,7 +4655,7 @@
         <v>37015</v>
       </c>
       <c r="AA39" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ref="AA39:AA65" ca="1" si="3">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
         <v>676</v>
       </c>
     </row>
@@ -4722,11 +4737,11 @@
         <v>37</v>
       </c>
       <c r="Z40" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ref="Z40:Z65" ca="1" si="4">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
         <v>57088</v>
       </c>
       <c r="AA40" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>812</v>
       </c>
     </row>
@@ -4808,11 +4823,11 @@
         <v>38</v>
       </c>
       <c r="Z41" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56530</v>
       </c>
       <c r="AA41" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1047</v>
       </c>
     </row>
@@ -4894,11 +4909,11 @@
         <v>39</v>
       </c>
       <c r="Z42" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58364</v>
       </c>
       <c r="AA42" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1121</v>
       </c>
     </row>
@@ -4980,11 +4995,11 @@
         <v>40</v>
       </c>
       <c r="Z43" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52891</v>
       </c>
       <c r="AA43" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1146</v>
       </c>
     </row>
@@ -5066,11 +5081,11 @@
         <v>41</v>
       </c>
       <c r="Z44" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42040</v>
       </c>
       <c r="AA44" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1127</v>
       </c>
     </row>
@@ -5152,11 +5167,11 @@
         <v>42</v>
       </c>
       <c r="Z45" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42759</v>
       </c>
       <c r="AA45" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1065</v>
       </c>
     </row>
@@ -5238,11 +5253,11 @@
         <v>43</v>
       </c>
       <c r="Z46" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34959</v>
       </c>
       <c r="AA46" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1009</v>
       </c>
     </row>
@@ -5324,11 +5339,11 @@
         <v>44</v>
       </c>
       <c r="Z47" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>24515</v>
       </c>
       <c r="AA47" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>836</v>
       </c>
     </row>
@@ -5410,11 +5425,11 @@
         <v>45</v>
       </c>
       <c r="Z48" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>24620</v>
       </c>
       <c r="AA48" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>749</v>
       </c>
       <c r="AB48" s="9">
@@ -5499,11 +5514,11 @@
         <v>46</v>
       </c>
       <c r="Z49" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30855</v>
       </c>
       <c r="AA49" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>675</v>
       </c>
     </row>
@@ -5585,11 +5600,11 @@
         <v>47</v>
       </c>
       <c r="Z50" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22360</v>
       </c>
       <c r="AA50" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>567</v>
       </c>
     </row>
@@ -5671,11 +5686,11 @@
         <v>48</v>
       </c>
       <c r="Z51" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>17366</v>
       </c>
       <c r="AA51" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>555</v>
       </c>
     </row>
@@ -5757,11 +5772,11 @@
         <v>49</v>
       </c>
       <c r="Z52" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>17733</v>
       </c>
       <c r="AA52" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>559</v>
       </c>
     </row>
@@ -5843,11 +5858,11 @@
         <v>50</v>
       </c>
       <c r="Z53" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16575</v>
       </c>
       <c r="AA53" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>546</v>
       </c>
     </row>
@@ -5929,11 +5944,11 @@
         <v>51</v>
       </c>
       <c r="Z54" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16645</v>
       </c>
       <c r="AA54" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>485</v>
       </c>
     </row>
@@ -6015,11 +6030,11 @@
         <v>52</v>
       </c>
       <c r="Z55" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>17732</v>
       </c>
       <c r="AA55" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>481</v>
       </c>
     </row>
@@ -6101,11 +6116,11 @@
         <v>53</v>
       </c>
       <c r="Z56" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22299</v>
       </c>
       <c r="AA56" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>503</v>
       </c>
     </row>
@@ -6187,11 +6202,11 @@
         <v>54</v>
       </c>
       <c r="Z57" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26289</v>
       </c>
       <c r="AA57" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>550</v>
       </c>
     </row>
@@ -6273,11 +6288,11 @@
         <v>55</v>
       </c>
       <c r="Z58" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>31426</v>
       </c>
       <c r="AA58" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>583</v>
       </c>
     </row>
@@ -6359,11 +6374,11 @@
         <v>56</v>
       </c>
       <c r="Z59" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37406</v>
       </c>
       <c r="AA59" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>725</v>
       </c>
     </row>
@@ -6445,11 +6460,11 @@
         <v>57</v>
       </c>
       <c r="Z60" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39503</v>
       </c>
       <c r="AA60" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>906</v>
       </c>
     </row>
@@ -6531,11 +6546,11 @@
         <v>58</v>
       </c>
       <c r="Z61" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37757</v>
       </c>
       <c r="AA61" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>956</v>
       </c>
     </row>
@@ -6617,11 +6632,11 @@
         <v>59</v>
       </c>
       <c r="Z62" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>31792</v>
       </c>
       <c r="AA62" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1065</v>
       </c>
     </row>
@@ -6703,11 +6718,11 @@
         <v>60</v>
       </c>
       <c r="Z63" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>23137</v>
       </c>
       <c r="AA63" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1097</v>
       </c>
     </row>
@@ -6789,11 +6804,11 @@
         <v>61</v>
       </c>
       <c r="Z64" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16960</v>
       </c>
       <c r="AA64" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1162</v>
       </c>
     </row>
@@ -6875,11 +6890,11 @@
         <v>62</v>
       </c>
       <c r="Z65" s="17">
-        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>11391</v>
       </c>
       <c r="AA65" s="17">
-        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>888</v>
       </c>
     </row>
@@ -6954,10 +6969,20 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
+      <c r="X66" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y66" s="17">
+        <v>63</v>
+      </c>
+      <c r="Z66" s="17">
+        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <v>8456</v>
+      </c>
+      <c r="AA66" s="17">
+        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <v>684</v>
+      </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -7030,10 +7055,20 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
+      <c r="X67" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y67" s="17">
+        <v>64</v>
+      </c>
+      <c r="Z67" s="17">
+        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <v>5788</v>
+      </c>
+      <c r="AA67" s="17">
+        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <v>557</v>
+      </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
@@ -7106,10 +7141,20 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
+      <c r="X68" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y68" s="17">
+        <v>65</v>
+      </c>
+      <c r="Z68" s="17">
+        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <v>3644</v>
+      </c>
+      <c r="AA68" s="17">
+        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <v>418</v>
+      </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
@@ -7182,10 +7227,20 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
+      <c r="X69" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y69" s="17">
+        <v>66</v>
+      </c>
+      <c r="Z69" s="17">
+        <f ca="1">SUM(OFFSET($S$12,(ROW()-4)*7,0,7,1))</f>
+        <v>2041</v>
+      </c>
+      <c r="AA69" s="17">
+        <f ca="1">SUM(OFFSET($V$12,(ROW()-4)*7,0,7,1))</f>
+        <v>335</v>
+      </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
@@ -7787,7 +7842,7 @@
         <v>30</v>
       </c>
       <c r="W77" s="20">
-        <f t="shared" ref="W77:W140" si="3">WEEKNUM(A77)</f>
+        <f t="shared" ref="W77:W140" si="5">WEEKNUM(A77)</f>
         <v>18</v>
       </c>
       <c r="X77" s="17"/>
@@ -7863,7 +7918,7 @@
         <v>24</v>
       </c>
       <c r="W78" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="X78" s="17"/>
@@ -7939,7 +7994,7 @@
         <v>27</v>
       </c>
       <c r="W79" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="X79" s="17"/>
@@ -8015,7 +8070,7 @@
         <v>27</v>
       </c>
       <c r="W80" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="X80" s="17"/>
@@ -8091,7 +8146,7 @@
         <v>19</v>
       </c>
       <c r="W81" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X81" s="17"/>
@@ -8167,7 +8222,7 @@
         <v>28</v>
       </c>
       <c r="W82" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X82" s="17"/>
@@ -8243,7 +8298,7 @@
         <v>23</v>
       </c>
       <c r="W83" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X83" s="17"/>
@@ -8319,7 +8374,7 @@
         <v>23</v>
       </c>
       <c r="W84" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X84" s="17"/>
@@ -8395,7 +8450,7 @@
         <v>24</v>
       </c>
       <c r="W85" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X85" s="17"/>
@@ -8471,7 +8526,7 @@
         <v>35</v>
       </c>
       <c r="W86" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X86" s="17"/>
@@ -8547,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="W87" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="X87" s="17"/>
@@ -8623,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="W88" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X88" s="17"/>
@@ -8699,7 +8754,7 @@
         <v>21</v>
       </c>
       <c r="W89" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X89" s="17"/>
@@ -8775,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="W90" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X90" s="17"/>
@@ -8851,7 +8906,7 @@
         <v>34</v>
       </c>
       <c r="W91" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X91" s="17"/>
@@ -8927,7 +8982,7 @@
         <v>17</v>
       </c>
       <c r="W92" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X92" s="17"/>
@@ -9003,7 +9058,7 @@
         <v>17</v>
       </c>
       <c r="W93" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X93" s="17"/>
@@ -9079,7 +9134,7 @@
         <v>24</v>
       </c>
       <c r="W94" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X94" s="17"/>
@@ -9155,7 +9210,7 @@
         <v>13</v>
       </c>
       <c r="W95" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X95" s="17"/>
@@ -9231,7 +9286,7 @@
         <v>13</v>
       </c>
       <c r="W96" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X96" s="17"/>
@@ -9307,7 +9362,7 @@
         <v>17</v>
       </c>
       <c r="W97" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X97" s="17"/>
@@ -9383,7 +9438,7 @@
         <v>10</v>
       </c>
       <c r="W98" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X98" s="17"/>
@@ -9459,7 +9514,7 @@
         <v>9</v>
       </c>
       <c r="W99" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X99" s="17"/>
@@ -9535,7 +9590,7 @@
         <v>10</v>
       </c>
       <c r="W100" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X100" s="17"/>
@@ -9611,7 +9666,7 @@
         <v>10</v>
       </c>
       <c r="W101" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X101" s="17"/>
@@ -9687,7 +9742,7 @@
         <v>9</v>
       </c>
       <c r="W102" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X102" s="17"/>
@@ -9763,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="W103" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X103" s="17"/>
@@ -9839,7 +9894,7 @@
         <v>11</v>
       </c>
       <c r="W104" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X104" s="17"/>
@@ -9915,7 +9970,7 @@
         <v>11</v>
       </c>
       <c r="W105" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X105" s="17"/>
@@ -9991,7 +10046,7 @@
         <v>8</v>
       </c>
       <c r="W106" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X106" s="17"/>
@@ -10067,7 +10122,7 @@
         <v>13</v>
       </c>
       <c r="W107" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X107" s="17"/>
@@ -10143,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="W108" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="X108" s="17"/>
@@ -10219,7 +10274,7 @@
         <v>7</v>
       </c>
       <c r="W109" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X109" s="17"/>
@@ -10295,7 +10350,7 @@
         <v>10</v>
       </c>
       <c r="W110" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X110" s="17"/>
@@ -10371,7 +10426,7 @@
         <v>12</v>
       </c>
       <c r="W111" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X111" s="17"/>
@@ -10447,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="W112" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X112" s="17"/>
@@ -10523,7 +10578,7 @@
         <v>9</v>
       </c>
       <c r="W113" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X113" s="17"/>
@@ -10599,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="W114" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X114" s="17"/>
@@ -10675,7 +10730,7 @@
         <v>6</v>
       </c>
       <c r="W115" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X115" s="17"/>
@@ -10751,7 +10806,7 @@
         <v>11</v>
       </c>
       <c r="W116" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X116" s="17"/>
@@ -10827,7 +10882,7 @@
         <v>6</v>
       </c>
       <c r="W117" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X117" s="17"/>
@@ -10903,7 +10958,7 @@
         <v>15</v>
       </c>
       <c r="W118" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X118" s="17"/>
@@ -10979,7 +11034,7 @@
         <v>6</v>
       </c>
       <c r="W119" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X119" s="17"/>
@@ -11055,7 +11110,7 @@
         <v>9</v>
       </c>
       <c r="W120" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X120" s="17"/>
@@ -11131,7 +11186,7 @@
         <v>11</v>
       </c>
       <c r="W121" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X121" s="17"/>
@@ -11207,7 +11262,7 @@
         <v>14</v>
       </c>
       <c r="W122" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X122" s="17"/>
@@ -11283,7 +11338,7 @@
         <v>16</v>
       </c>
       <c r="W123" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X123" s="17"/>
@@ -11359,7 +11414,7 @@
         <v>17</v>
       </c>
       <c r="W124" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X124" s="17"/>
@@ -11435,7 +11490,7 @@
         <v>10</v>
       </c>
       <c r="W125" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X125" s="17"/>
@@ -11511,7 +11566,7 @@
         <v>14</v>
       </c>
       <c r="W126" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X126" s="17"/>
@@ -11587,7 +11642,7 @@
         <v>22</v>
       </c>
       <c r="W127" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X127" s="17"/>
@@ -11663,7 +11718,7 @@
         <v>11</v>
       </c>
       <c r="W128" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X128" s="17"/>
@@ -11739,7 +11794,7 @@
         <v>16</v>
       </c>
       <c r="W129" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X129" s="17"/>
@@ -11815,7 +11870,7 @@
         <v>12</v>
       </c>
       <c r="W130" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X130" s="17"/>
@@ -11891,7 +11946,7 @@
         <v>11</v>
       </c>
       <c r="W131" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X131" s="17"/>
@@ -11967,7 +12022,7 @@
         <v>16</v>
       </c>
       <c r="W132" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X132" s="17"/>
@@ -12043,7 +12098,7 @@
         <v>16</v>
       </c>
       <c r="W133" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X133" s="17"/>
@@ -12119,7 +12174,7 @@
         <v>10</v>
       </c>
       <c r="W134" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X134" s="17"/>
@@ -12195,7 +12250,7 @@
         <v>14</v>
       </c>
       <c r="W135" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X135" s="17"/>
@@ -12271,7 +12326,7 @@
         <v>10</v>
       </c>
       <c r="W136" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X136" s="17"/>
@@ -12347,7 +12402,7 @@
         <v>23</v>
       </c>
       <c r="W137" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="X137" s="17"/>
@@ -12423,7 +12478,7 @@
         <v>22</v>
       </c>
       <c r="W138" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="X138" s="17"/>
@@ -12499,7 +12554,7 @@
         <v>17</v>
       </c>
       <c r="W139" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="X139" s="17"/>
@@ -12575,7 +12630,7 @@
         <v>16</v>
       </c>
       <c r="W140" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="X140" s="17"/>
@@ -12651,7 +12706,7 @@
         <v>20</v>
       </c>
       <c r="W141" s="20">
-        <f t="shared" ref="W141:W204" si="4">WEEKNUM(A141)</f>
+        <f t="shared" ref="W141:W204" si="6">WEEKNUM(A141)</f>
         <v>27</v>
       </c>
       <c r="X141" s="17"/>
@@ -12727,7 +12782,7 @@
         <v>21</v>
       </c>
       <c r="W142" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="X142" s="17"/>
@@ -12803,7 +12858,7 @@
         <v>23</v>
       </c>
       <c r="W143" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="X143" s="17"/>
@@ -12879,7 +12934,7 @@
         <v>19</v>
       </c>
       <c r="W144" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X144" s="17"/>
@@ -12955,7 +13010,7 @@
         <v>18</v>
       </c>
       <c r="W145" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X145" s="17"/>
@@ -13031,7 +13086,7 @@
         <v>31</v>
       </c>
       <c r="W146" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X146" s="17"/>
@@ -13107,7 +13162,7 @@
         <v>18</v>
       </c>
       <c r="W147" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X147" s="17"/>
@@ -13183,7 +13238,7 @@
         <v>17</v>
       </c>
       <c r="W148" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X148" s="17"/>
@@ -13259,7 +13314,7 @@
         <v>13</v>
       </c>
       <c r="W149" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X149" s="17"/>
@@ -13335,7 +13390,7 @@
         <v>24</v>
       </c>
       <c r="W150" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X150" s="17"/>
@@ -13411,7 +13466,7 @@
         <v>13</v>
       </c>
       <c r="W151" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X151" s="17"/>
@@ -13487,7 +13542,7 @@
         <v>17</v>
       </c>
       <c r="W152" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X152" s="17"/>
@@ -13563,7 +13618,7 @@
         <v>30</v>
       </c>
       <c r="W153" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X153" s="17"/>
@@ -13639,7 +13694,7 @@
         <v>21</v>
       </c>
       <c r="W154" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X154" s="17"/>
@@ -13715,7 +13770,7 @@
         <v>19</v>
       </c>
       <c r="W155" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X155" s="17"/>
@@ -13791,7 +13846,7 @@
         <v>17</v>
       </c>
       <c r="W156" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X156" s="17"/>
@@ -13867,7 +13922,7 @@
         <v>21</v>
       </c>
       <c r="W157" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="X157" s="17"/>
@@ -13943,7 +13998,7 @@
         <v>17</v>
       </c>
       <c r="W158" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X158" s="17"/>
@@ -14019,7 +14074,7 @@
         <v>12</v>
       </c>
       <c r="W159" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X159" s="17"/>
@@ -14095,7 +14150,7 @@
         <v>36</v>
       </c>
       <c r="W160" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X160" s="17"/>
@@ -14171,7 +14226,7 @@
         <v>27</v>
       </c>
       <c r="W161" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X161" s="17"/>
@@ -14247,7 +14302,7 @@
         <v>25</v>
       </c>
       <c r="W162" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X162" s="17"/>
@@ -14323,7 +14378,7 @@
         <v>24</v>
       </c>
       <c r="W163" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X163" s="17"/>
@@ -14399,7 +14454,7 @@
         <v>15</v>
       </c>
       <c r="W164" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="X164" s="17"/>
@@ -14475,7 +14530,7 @@
         <v>22</v>
       </c>
       <c r="W165" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X165" s="17"/>
@@ -14551,7 +14606,7 @@
         <v>19</v>
       </c>
       <c r="W166" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X166" s="17"/>
@@ -14627,7 +14682,7 @@
         <v>33</v>
       </c>
       <c r="W167" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X167" s="17"/>
@@ -14703,7 +14758,7 @@
         <v>30</v>
       </c>
       <c r="W168" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X168" s="17"/>
@@ -14779,7 +14834,7 @@
         <v>35</v>
       </c>
       <c r="W169" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X169" s="17"/>
@@ -14855,7 +14910,7 @@
         <v>39</v>
       </c>
       <c r="W170" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X170" s="17"/>
@@ -14931,7 +14986,7 @@
         <v>36</v>
       </c>
       <c r="W171" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="X171" s="17"/>
@@ -15007,7 +15062,7 @@
         <v>34</v>
       </c>
       <c r="W172" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15079,7 +15134,7 @@
         <v>19</v>
       </c>
       <c r="W173" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15151,7 +15206,7 @@
         <v>48</v>
       </c>
       <c r="W174" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15223,7 +15278,7 @@
         <v>41</v>
       </c>
       <c r="W175" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15295,7 +15350,7 @@
         <v>45</v>
       </c>
       <c r="W176" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15367,7 +15422,7 @@
         <v>50</v>
       </c>
       <c r="W177" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15439,7 +15494,7 @@
         <v>43</v>
       </c>
       <c r="W178" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -15511,7 +15566,7 @@
         <v>41</v>
       </c>
       <c r="W179" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15583,7 +15638,7 @@
         <v>29</v>
       </c>
       <c r="W180" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15655,7 +15710,7 @@
         <v>35</v>
       </c>
       <c r="W181" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15727,7 +15782,7 @@
         <v>43</v>
       </c>
       <c r="W182" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15799,7 +15854,7 @@
         <v>53</v>
       </c>
       <c r="W183" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15871,7 +15926,7 @@
         <v>44</v>
       </c>
       <c r="W184" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -15943,7 +15998,7 @@
         <v>50</v>
       </c>
       <c r="W185" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -16015,7 +16070,7 @@
         <v>37</v>
       </c>
       <c r="W186" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16087,7 +16142,7 @@
         <v>38</v>
       </c>
       <c r="W187" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16159,7 +16214,7 @@
         <v>45</v>
       </c>
       <c r="W188" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16231,7 +16286,7 @@
         <v>32</v>
       </c>
       <c r="W189" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16303,7 +16358,7 @@
         <v>48</v>
       </c>
       <c r="W190" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16375,7 +16430,7 @@
         <v>42</v>
       </c>
       <c r="W191" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16447,7 +16502,7 @@
         <v>37</v>
       </c>
       <c r="W192" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -16519,7 +16574,7 @@
         <v>39</v>
       </c>
       <c r="W193" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16591,7 +16646,7 @@
         <v>37</v>
       </c>
       <c r="W194" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16663,7 +16718,7 @@
         <v>58</v>
       </c>
       <c r="W195" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16735,7 +16790,7 @@
         <v>54</v>
       </c>
       <c r="W196" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16807,7 +16862,7 @@
         <v>38</v>
       </c>
       <c r="W197" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16879,7 +16934,7 @@
         <v>48</v>
       </c>
       <c r="W198" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -16951,7 +17006,7 @@
         <v>32</v>
       </c>
       <c r="W199" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -17023,7 +17078,7 @@
         <v>39</v>
       </c>
       <c r="W200" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -17095,7 +17150,7 @@
         <v>43</v>
       </c>
       <c r="W201" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -17167,7 +17222,7 @@
         <v>60</v>
       </c>
       <c r="W202" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -17239,7 +17294,7 @@
         <v>40</v>
       </c>
       <c r="W203" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -17311,7 +17366,7 @@
         <v>44</v>
       </c>
       <c r="W204" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -17383,7 +17438,7 @@
         <v>47</v>
       </c>
       <c r="W205" s="20">
-        <f t="shared" ref="W205:W262" si="5">WEEKNUM(A205)</f>
+        <f t="shared" ref="W205:W262" si="7">WEEKNUM(A205)</f>
         <v>36</v>
       </c>
     </row>
@@ -17455,7 +17510,7 @@
         <v>38</v>
       </c>
       <c r="W206" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
     </row>
@@ -17527,7 +17582,7 @@
         <v>43</v>
       </c>
       <c r="W207" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17599,7 +17654,7 @@
         <v>33</v>
       </c>
       <c r="W208" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17671,7 +17726,7 @@
         <v>41</v>
       </c>
       <c r="W209" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17743,7 +17798,7 @@
         <v>51</v>
       </c>
       <c r="W210" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17815,7 +17870,7 @@
         <v>47</v>
       </c>
       <c r="W211" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17887,7 +17942,7 @@
         <v>35</v>
       </c>
       <c r="W212" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -17959,7 +18014,7 @@
         <v>27</v>
       </c>
       <c r="W213" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
     </row>
@@ -18031,7 +18086,7 @@
         <v>36</v>
       </c>
       <c r="W214" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18103,7 +18158,7 @@
         <v>22</v>
       </c>
       <c r="W215" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18175,7 +18230,7 @@
         <v>51</v>
       </c>
       <c r="W216" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18247,7 +18302,7 @@
         <v>49</v>
       </c>
       <c r="W217" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18319,7 +18374,7 @@
         <v>27</v>
       </c>
       <c r="W218" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18391,7 +18446,7 @@
         <v>48</v>
       </c>
       <c r="W219" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18463,7 +18518,7 @@
         <v>42</v>
       </c>
       <c r="W220" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -18535,7 +18590,7 @@
         <v>33</v>
       </c>
       <c r="W221" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18607,7 +18662,7 @@
         <v>23</v>
       </c>
       <c r="W222" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18679,7 +18734,7 @@
         <v>45</v>
       </c>
       <c r="W223" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18751,7 +18806,7 @@
         <v>47</v>
       </c>
       <c r="W224" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18823,7 +18878,7 @@
         <v>41</v>
       </c>
       <c r="W225" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18895,7 +18950,7 @@
         <v>42</v>
       </c>
       <c r="W226" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -18967,7 +19022,7 @@
         <v>54</v>
       </c>
       <c r="W227" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -19039,7 +19094,7 @@
         <v>31</v>
       </c>
       <c r="W228" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19111,7 +19166,7 @@
         <v>30</v>
       </c>
       <c r="W229" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19183,7 +19238,7 @@
         <v>44</v>
       </c>
       <c r="W230" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19255,7 +19310,7 @@
         <v>33</v>
       </c>
       <c r="W231" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19327,7 +19382,7 @@
         <v>37</v>
       </c>
       <c r="W232" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19399,7 +19454,7 @@
         <v>53</v>
       </c>
       <c r="W233" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19471,7 +19526,7 @@
         <v>32</v>
       </c>
       <c r="W234" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
@@ -19543,7 +19598,7 @@
         <v>56</v>
       </c>
       <c r="W235" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19615,7 +19670,7 @@
         <v>45</v>
       </c>
       <c r="W236" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19687,7 +19742,7 @@
         <v>73</v>
       </c>
       <c r="W237" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19759,7 +19814,7 @@
         <v>82</v>
       </c>
       <c r="W238" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19831,7 +19886,7 @@
         <v>44</v>
       </c>
       <c r="W239" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19903,7 +19958,7 @@
         <v>52</v>
       </c>
       <c r="W240" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -19975,7 +20030,7 @@
         <v>59</v>
       </c>
       <c r="W241" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -20047,7 +20102,7 @@
         <v>53</v>
       </c>
       <c r="W242" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20119,7 +20174,7 @@
         <v>56</v>
       </c>
       <c r="W243" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20191,7 +20246,7 @@
         <v>68</v>
       </c>
       <c r="W244" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20263,7 +20318,7 @@
         <v>66</v>
       </c>
       <c r="W245" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20335,7 +20390,7 @@
         <v>73</v>
       </c>
       <c r="W246" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20407,7 +20462,7 @@
         <v>75</v>
       </c>
       <c r="W247" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20479,7 +20534,7 @@
         <v>63</v>
       </c>
       <c r="W248" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
     </row>
@@ -20551,7 +20606,7 @@
         <v>60</v>
       </c>
       <c r="W249" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20623,7 +20678,7 @@
         <v>59</v>
       </c>
       <c r="W250" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20695,7 +20750,7 @@
         <v>65</v>
       </c>
       <c r="W251" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20767,7 +20822,7 @@
         <v>69</v>
       </c>
       <c r="W252" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20839,7 +20894,7 @@
         <v>98</v>
       </c>
       <c r="W253" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20911,7 +20966,7 @@
         <v>82</v>
       </c>
       <c r="W254" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -20983,7 +21038,7 @@
         <v>73</v>
       </c>
       <c r="W255" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -21055,7 +21110,7 @@
         <v>73</v>
       </c>
       <c r="W256" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21127,7 +21182,7 @@
         <v>79</v>
       </c>
       <c r="W257" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21199,7 +21254,7 @@
         <v>104</v>
       </c>
       <c r="W258" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21271,7 +21326,7 @@
         <v>107</v>
       </c>
       <c r="W259" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21343,7 +21398,7 @@
         <v>83</v>
       </c>
       <c r="W260" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21415,7 +21470,7 @@
         <v>103</v>
       </c>
       <c r="W261" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -21487,7 +21542,7 @@
         <v>101</v>
       </c>
       <c r="W262" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
     </row>
@@ -22056,7 +22111,7 @@
         <v>86</v>
       </c>
       <c r="W270" s="26">
-        <f t="shared" ref="W270:W323" si="6">WEEKNUM(A270)</f>
+        <f t="shared" ref="W270:W323" si="8">WEEKNUM(A270)</f>
         <v>46</v>
       </c>
     </row>
@@ -22128,7 +22183,7 @@
         <v>130</v>
       </c>
       <c r="W271" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22200,7 +22255,7 @@
         <v>177</v>
       </c>
       <c r="W272" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22272,7 +22327,7 @@
         <v>203</v>
       </c>
       <c r="W273" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22344,7 +22399,7 @@
         <v>121</v>
       </c>
       <c r="W274" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22416,7 +22471,7 @@
         <v>174</v>
       </c>
       <c r="W275" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22488,7 +22543,7 @@
         <v>129</v>
       </c>
       <c r="W276" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -22560,7 +22615,7 @@
         <v>113</v>
       </c>
       <c r="W277" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22632,7 +22687,7 @@
         <v>149</v>
       </c>
       <c r="W278" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22704,7 +22759,7 @@
         <v>186</v>
       </c>
       <c r="W279" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22776,7 +22831,7 @@
         <v>168</v>
       </c>
       <c r="W280" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22848,7 +22903,7 @@
         <v>167</v>
       </c>
       <c r="W281" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22920,7 +22975,7 @@
         <v>160</v>
       </c>
       <c r="W282" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -22992,7 +23047,7 @@
         <v>160</v>
       </c>
       <c r="W283" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
@@ -23064,7 +23119,7 @@
         <v>131</v>
       </c>
       <c r="W284" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23136,7 +23191,7 @@
         <v>130</v>
       </c>
       <c r="W285" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23208,7 +23263,7 @@
         <v>196</v>
       </c>
       <c r="W286" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23280,7 +23335,7 @@
         <v>168</v>
       </c>
       <c r="W287" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23352,7 +23407,7 @@
         <v>171</v>
       </c>
       <c r="W288" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23424,7 +23479,7 @@
         <v>172</v>
       </c>
       <c r="W289" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23496,7 +23551,7 @@
         <v>161</v>
       </c>
       <c r="W290" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -23568,7 +23623,7 @@
         <v>148</v>
       </c>
       <c r="W291" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -23640,7 +23695,7 @@
         <v>138</v>
       </c>
       <c r="W292" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -23712,7 +23767,7 @@
         <v>199</v>
       </c>
       <c r="W293" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -23784,7 +23839,7 @@
         <v>135</v>
       </c>
       <c r="W294" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -23856,7 +23911,7 @@
         <v>211</v>
       </c>
       <c r="W295" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -23928,7 +23983,7 @@
         <v>176</v>
       </c>
       <c r="W296" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -24000,7 +24055,7 @@
         <v>134</v>
       </c>
       <c r="W297" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -24072,7 +24127,7 @@
         <v>134</v>
       </c>
       <c r="W298" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24144,7 +24199,7 @@
         <v>127</v>
       </c>
       <c r="W299" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24216,7 +24271,7 @@
         <v>213</v>
       </c>
       <c r="W300" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24288,7 +24343,7 @@
         <v>161</v>
       </c>
       <c r="W301" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24360,7 +24415,7 @@
         <v>127</v>
       </c>
       <c r="W302" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24432,7 +24487,7 @@
         <v>168</v>
       </c>
       <c r="W303" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24504,7 +24559,7 @@
         <v>148</v>
       </c>
       <c r="W304" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -24576,7 +24631,7 @@
         <v>121</v>
       </c>
       <c r="W305" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -24648,7 +24703,7 @@
         <v>109</v>
       </c>
       <c r="W306" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -24720,7 +24775,7 @@
         <v>204</v>
       </c>
       <c r="W307" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -24792,7 +24847,7 @@
         <v>164</v>
       </c>
       <c r="W308" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -24864,7 +24919,7 @@
         <v>107</v>
       </c>
       <c r="W309" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -24936,7 +24991,7 @@
         <v>188</v>
       </c>
       <c r="W310" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -25008,7 +25063,7 @@
         <v>139</v>
       </c>
       <c r="W311" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -25080,7 +25135,7 @@
         <v>98</v>
       </c>
       <c r="W312" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25152,7 +25207,7 @@
         <v>87</v>
       </c>
       <c r="W313" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25224,7 +25279,7 @@
         <v>155</v>
       </c>
       <c r="W314" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25296,7 +25351,7 @@
         <v>130</v>
       </c>
       <c r="W315" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25368,7 +25423,7 @@
         <v>146</v>
       </c>
       <c r="W316" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25440,7 +25495,7 @@
         <v>111</v>
       </c>
       <c r="W317" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25512,7 +25567,7 @@
         <v>85</v>
       </c>
       <c r="W318" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -25584,7 +25639,7 @@
         <v>122</v>
       </c>
       <c r="W319" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
@@ -25656,7 +25711,7 @@
         <v>104</v>
       </c>
       <c r="W320" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
@@ -25728,7 +25783,7 @@
         <v>135</v>
       </c>
       <c r="W321" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
@@ -25800,7 +25855,7 @@
         <v>127</v>
       </c>
       <c r="W322" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
@@ -25872,7 +25927,7 @@
         <v>171</v>
       </c>
       <c r="W323" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
@@ -34507,6 +34562,9 @@
       <c r="M445" s="4">
         <v>622110</v>
       </c>
+      <c r="N445" s="5">
+        <v>1625</v>
+      </c>
       <c r="O445" s="4">
         <v>22331</v>
       </c>
@@ -34533,6 +34591,1994 @@
       </c>
       <c r="W445" s="29">
         <v>71</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" s="10">
+        <v>44319</v>
+      </c>
+      <c r="B446" s="2">
+        <v>444</v>
+      </c>
+      <c r="C446" s="1">
+        <v>838621</v>
+      </c>
+      <c r="D446" s="1">
+        <v>67</v>
+      </c>
+      <c r="E446" s="1">
+        <v>1259</v>
+      </c>
+      <c r="F446" s="1">
+        <v>6367</v>
+      </c>
+      <c r="G446" s="1">
+        <v>1</v>
+      </c>
+      <c r="H446" s="3">
+        <v>784111</v>
+      </c>
+      <c r="I446" s="3">
+        <v>1219</v>
+      </c>
+      <c r="J446" s="3">
+        <v>228002</v>
+      </c>
+      <c r="K446" s="3">
+        <v>27908</v>
+      </c>
+      <c r="L446" s="3">
+        <v>106</v>
+      </c>
+      <c r="M446" s="4">
+        <v>623201</v>
+      </c>
+      <c r="N446" s="5">
+        <v>1091</v>
+      </c>
+      <c r="O446" s="4">
+        <v>21416</v>
+      </c>
+      <c r="P446" s="6">
+        <v>10260</v>
+      </c>
+      <c r="Q446" s="4">
+        <v>15</v>
+      </c>
+      <c r="R446" s="7">
+        <v>1058337</v>
+      </c>
+      <c r="S446" s="7">
+        <v>682</v>
+      </c>
+      <c r="T446" s="7">
+        <v>32208</v>
+      </c>
+      <c r="U446" s="7">
+        <v>28380</v>
+      </c>
+      <c r="V446" s="7">
+        <v>98</v>
+      </c>
+      <c r="W446" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" s="10">
+        <v>44320</v>
+      </c>
+      <c r="B447" s="2">
+        <v>445</v>
+      </c>
+      <c r="C447" s="1">
+        <v>838697</v>
+      </c>
+      <c r="D447" s="1">
+        <v>76</v>
+      </c>
+      <c r="E447" s="1">
+        <v>1238</v>
+      </c>
+      <c r="F447" s="1">
+        <v>6369</v>
+      </c>
+      <c r="G447" s="1">
+        <v>2</v>
+      </c>
+      <c r="H447" s="3">
+        <v>784837</v>
+      </c>
+      <c r="I447" s="3">
+        <v>726</v>
+      </c>
+      <c r="J447" s="3">
+        <v>223802</v>
+      </c>
+      <c r="K447" s="3">
+        <v>28045</v>
+      </c>
+      <c r="L447" s="3">
+        <v>137</v>
+      </c>
+      <c r="M447" s="4">
+        <v>624595</v>
+      </c>
+      <c r="N447" s="5">
+        <v>1394</v>
+      </c>
+      <c r="O447" s="4">
+        <v>20620</v>
+      </c>
+      <c r="P447" s="6">
+        <v>10291</v>
+      </c>
+      <c r="Q447" s="4">
+        <v>31</v>
+      </c>
+      <c r="R447" s="7">
+        <v>1059331</v>
+      </c>
+      <c r="S447" s="7">
+        <v>994</v>
+      </c>
+      <c r="T447" s="7">
+        <v>30406</v>
+      </c>
+      <c r="U447" s="7">
+        <v>28474</v>
+      </c>
+      <c r="V447" s="7">
+        <v>94</v>
+      </c>
+      <c r="W447" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" s="10">
+        <v>44321</v>
+      </c>
+      <c r="B448" s="2">
+        <v>446</v>
+      </c>
+      <c r="C448" s="1">
+        <v>838767</v>
+      </c>
+      <c r="D448" s="1">
+        <v>70</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1179</v>
+      </c>
+      <c r="F448" s="1">
+        <v>6370</v>
+      </c>
+      <c r="G448" s="1">
+        <v>1</v>
+      </c>
+      <c r="H448" s="3">
+        <v>785967</v>
+      </c>
+      <c r="I448" s="3">
+        <v>1130</v>
+      </c>
+      <c r="J448" s="3">
+        <v>218829</v>
+      </c>
+      <c r="K448" s="3">
+        <v>28173</v>
+      </c>
+      <c r="L448" s="3">
+        <v>128</v>
+      </c>
+      <c r="M448" s="4">
+        <v>626239</v>
+      </c>
+      <c r="N448" s="5">
+        <v>1644</v>
+      </c>
+      <c r="O448" s="4">
+        <v>20051</v>
+      </c>
+      <c r="P448" s="6">
+        <v>10311</v>
+      </c>
+      <c r="Q448" s="4">
+        <v>20</v>
+      </c>
+      <c r="R448" s="7">
+        <v>1060895</v>
+      </c>
+      <c r="S448" s="7">
+        <v>1564</v>
+      </c>
+      <c r="T448" s="7">
+        <v>29294</v>
+      </c>
+      <c r="U448" s="7">
+        <v>28616</v>
+      </c>
+      <c r="V448" s="7">
+        <v>142</v>
+      </c>
+      <c r="W448" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" s="10">
+        <v>44322</v>
+      </c>
+      <c r="B449" s="2">
+        <v>447</v>
+      </c>
+      <c r="C449" s="1">
+        <v>838828</v>
+      </c>
+      <c r="D449" s="1">
+        <v>61</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1123</v>
+      </c>
+      <c r="F449" s="1">
+        <v>6374</v>
+      </c>
+      <c r="G449" s="1">
+        <v>4</v>
+      </c>
+      <c r="H449" s="3">
+        <v>787647</v>
+      </c>
+      <c r="I449" s="3">
+        <v>1680</v>
+      </c>
+      <c r="J449" s="3">
+        <v>213104</v>
+      </c>
+      <c r="K449" s="3">
+        <v>28297</v>
+      </c>
+      <c r="L449" s="3">
+        <v>124</v>
+      </c>
+      <c r="M449" s="4">
+        <v>627484</v>
+      </c>
+      <c r="N449" s="5">
+        <v>1245</v>
+      </c>
+      <c r="O449" s="4">
+        <v>19229</v>
+      </c>
+      <c r="P449" s="6">
+        <v>10333</v>
+      </c>
+      <c r="Q449" s="4">
+        <v>22</v>
+      </c>
+      <c r="R449" s="7">
+        <v>1062527</v>
+      </c>
+      <c r="S449" s="7">
+        <v>1632</v>
+      </c>
+      <c r="T449" s="7">
+        <v>28194</v>
+      </c>
+      <c r="U449" s="7">
+        <v>28710</v>
+      </c>
+      <c r="V449" s="7">
+        <v>94</v>
+      </c>
+      <c r="W449" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" s="10">
+        <v>44323</v>
+      </c>
+      <c r="B450" s="2">
+        <v>448</v>
+      </c>
+      <c r="C450" s="1">
+        <v>838858</v>
+      </c>
+      <c r="D450" s="1">
+        <v>30</v>
+      </c>
+      <c r="E450" s="1">
+        <v>1051</v>
+      </c>
+      <c r="F450" s="1">
+        <v>6375</v>
+      </c>
+      <c r="G450" s="1">
+        <v>1</v>
+      </c>
+      <c r="H450" s="3">
+        <v>789188</v>
+      </c>
+      <c r="I450" s="3">
+        <v>1541</v>
+      </c>
+      <c r="J450" s="3">
+        <v>206949</v>
+      </c>
+      <c r="K450" s="3">
+        <v>28403</v>
+      </c>
+      <c r="L450" s="3">
+        <v>106</v>
+      </c>
+      <c r="M450" s="4">
+        <v>628817</v>
+      </c>
+      <c r="N450" s="5">
+        <v>1333</v>
+      </c>
+      <c r="O450" s="4">
+        <v>18612</v>
+      </c>
+      <c r="P450" s="6">
+        <v>10351</v>
+      </c>
+      <c r="Q450" s="4">
+        <v>18</v>
+      </c>
+      <c r="R450" s="7">
+        <v>1063949</v>
+      </c>
+      <c r="S450" s="7">
+        <v>1422</v>
+      </c>
+      <c r="T450" s="7">
+        <v>25913</v>
+      </c>
+      <c r="U450" s="7">
+        <v>28799</v>
+      </c>
+      <c r="V450" s="7">
+        <v>89</v>
+      </c>
+      <c r="W450" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" s="10">
+        <v>44324</v>
+      </c>
+      <c r="B451" s="2">
+        <v>449</v>
+      </c>
+      <c r="C451" s="1">
+        <v>838885</v>
+      </c>
+      <c r="D451" s="1">
+        <v>27</v>
+      </c>
+      <c r="E451" s="1">
+        <v>1029</v>
+      </c>
+      <c r="F451" s="1">
+        <v>6376</v>
+      </c>
+      <c r="G451" s="1">
+        <v>1</v>
+      </c>
+      <c r="H451" s="3">
+        <v>790564</v>
+      </c>
+      <c r="I451" s="3">
+        <v>1376</v>
+      </c>
+      <c r="J451" s="3">
+        <v>200941</v>
+      </c>
+      <c r="K451" s="3">
+        <v>28504</v>
+      </c>
+      <c r="L451" s="3">
+        <v>101</v>
+      </c>
+      <c r="M451" s="4">
+        <v>630050</v>
+      </c>
+      <c r="N451" s="5">
+        <v>1233</v>
+      </c>
+      <c r="O451" s="4">
+        <v>17718</v>
+      </c>
+      <c r="P451" s="6">
+        <v>10374</v>
+      </c>
+      <c r="Q451" s="4">
+        <v>23</v>
+      </c>
+      <c r="R451" s="7">
+        <v>1065254</v>
+      </c>
+      <c r="S451" s="7">
+        <v>1305</v>
+      </c>
+      <c r="T451" s="7">
+        <v>24657</v>
+      </c>
+      <c r="U451" s="7">
+        <v>28903</v>
+      </c>
+      <c r="V451" s="7">
+        <v>104</v>
+      </c>
+      <c r="W451" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" s="10">
+        <v>44325</v>
+      </c>
+      <c r="B452" s="2">
+        <v>450</v>
+      </c>
+      <c r="C452" s="1">
+        <v>838892</v>
+      </c>
+      <c r="D452" s="1">
+        <v>7</v>
+      </c>
+      <c r="E452" s="1">
+        <v>895</v>
+      </c>
+      <c r="F452" s="1">
+        <v>6377</v>
+      </c>
+      <c r="G452" s="1">
+        <v>1</v>
+      </c>
+      <c r="H452" s="3">
+        <v>791709</v>
+      </c>
+      <c r="I452" s="3">
+        <v>1145</v>
+      </c>
+      <c r="J452" s="3">
+        <v>194778</v>
+      </c>
+      <c r="K452" s="3">
+        <v>28602</v>
+      </c>
+      <c r="L452" s="3">
+        <v>98</v>
+      </c>
+      <c r="M452" s="4">
+        <v>631076</v>
+      </c>
+      <c r="N452" s="5">
+        <v>1026</v>
+      </c>
+      <c r="O452" s="4">
+        <v>16793</v>
+      </c>
+      <c r="P452" s="6">
+        <v>10382</v>
+      </c>
+      <c r="Q452" s="4">
+        <v>8</v>
+      </c>
+      <c r="R452" s="7">
+        <v>1066111</v>
+      </c>
+      <c r="S452" s="7">
+        <v>857</v>
+      </c>
+      <c r="T452" s="7">
+        <v>23479</v>
+      </c>
+      <c r="U452" s="7">
+        <v>28966</v>
+      </c>
+      <c r="V452" s="7">
+        <v>63</v>
+      </c>
+      <c r="W452" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" s="10">
+        <v>44326</v>
+      </c>
+      <c r="B453" s="2">
+        <v>451</v>
+      </c>
+      <c r="C453" s="1">
+        <v>838957</v>
+      </c>
+      <c r="D453" s="1">
+        <v>65</v>
+      </c>
+      <c r="E453" s="1">
+        <v>959</v>
+      </c>
+      <c r="F453" s="1">
+        <v>6378</v>
+      </c>
+      <c r="G453" s="1">
+        <v>1</v>
+      </c>
+      <c r="H453" s="3">
+        <v>792386</v>
+      </c>
+      <c r="I453" s="3">
+        <v>677</v>
+      </c>
+      <c r="J453" s="3">
+        <v>188083</v>
+      </c>
+      <c r="K453" s="3">
+        <v>28693</v>
+      </c>
+      <c r="L453" s="3">
+        <v>91</v>
+      </c>
+      <c r="M453" s="4">
+        <v>631896</v>
+      </c>
+      <c r="N453" s="5">
+        <v>820</v>
+      </c>
+      <c r="O453" s="4">
+        <v>16063</v>
+      </c>
+      <c r="P453" s="6">
+        <v>10392</v>
+      </c>
+      <c r="Q453" s="4">
+        <v>10</v>
+      </c>
+      <c r="R453" s="7">
+        <v>1066731</v>
+      </c>
+      <c r="S453" s="7">
+        <v>620</v>
+      </c>
+      <c r="T453" s="7">
+        <v>22605</v>
+      </c>
+      <c r="U453" s="7">
+        <v>29034</v>
+      </c>
+      <c r="V453" s="7">
+        <v>68</v>
+      </c>
+      <c r="W453" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" s="10">
+        <v>44327</v>
+      </c>
+      <c r="B454" s="2">
+        <v>452</v>
+      </c>
+      <c r="C454" s="1">
+        <v>839000</v>
+      </c>
+      <c r="D454" s="1">
+        <v>43</v>
+      </c>
+      <c r="E454" s="1">
+        <v>884</v>
+      </c>
+      <c r="F454" s="1">
+        <v>6378</v>
+      </c>
+      <c r="G454" s="1">
+        <v>0</v>
+      </c>
+      <c r="H454" s="3">
+        <v>792879</v>
+      </c>
+      <c r="I454" s="3">
+        <v>493</v>
+      </c>
+      <c r="J454" s="3">
+        <v>180285</v>
+      </c>
+      <c r="K454" s="3">
+        <v>28792</v>
+      </c>
+      <c r="L454" s="3">
+        <v>99</v>
+      </c>
+      <c r="M454" s="4">
+        <v>632766</v>
+      </c>
+      <c r="N454" s="5">
+        <v>870</v>
+      </c>
+      <c r="O454" s="4">
+        <v>14641</v>
+      </c>
+      <c r="P454" s="6">
+        <v>10413</v>
+      </c>
+      <c r="Q454" s="4">
+        <v>21</v>
+      </c>
+      <c r="R454" s="7">
+        <v>1067887</v>
+      </c>
+      <c r="S454" s="7">
+        <v>1156</v>
+      </c>
+      <c r="T454" s="7">
+        <v>21705</v>
+      </c>
+      <c r="U454" s="7">
+        <v>29135</v>
+      </c>
+      <c r="V454" s="7">
+        <v>101</v>
+      </c>
+      <c r="W454" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" s="10">
+        <v>44328</v>
+      </c>
+      <c r="B455" s="2">
+        <v>453</v>
+      </c>
+      <c r="C455" s="1">
+        <v>839030</v>
+      </c>
+      <c r="D455" s="1">
+        <v>30</v>
+      </c>
+      <c r="E455" s="1">
+        <v>825</v>
+      </c>
+      <c r="F455" s="1">
+        <v>6379</v>
+      </c>
+      <c r="G455" s="1">
+        <v>1</v>
+      </c>
+      <c r="H455" s="3">
+        <v>793784</v>
+      </c>
+      <c r="I455" s="3">
+        <v>905</v>
+      </c>
+      <c r="J455" s="3">
+        <v>172456</v>
+      </c>
+      <c r="K455" s="3">
+        <v>28888</v>
+      </c>
+      <c r="L455" s="3">
+        <v>96</v>
+      </c>
+      <c r="M455" s="4">
+        <v>633960</v>
+      </c>
+      <c r="N455" s="5">
+        <v>1194</v>
+      </c>
+      <c r="O455" s="4">
+        <v>13866</v>
+      </c>
+      <c r="P455" s="6">
+        <v>10428</v>
+      </c>
+      <c r="Q455" s="4">
+        <v>15</v>
+      </c>
+      <c r="R455" s="7">
+        <v>1068817</v>
+      </c>
+      <c r="S455" s="7">
+        <v>930</v>
+      </c>
+      <c r="T455" s="7">
+        <v>20942</v>
+      </c>
+      <c r="U455" s="7">
+        <v>29233</v>
+      </c>
+      <c r="V455" s="7">
+        <v>98</v>
+      </c>
+      <c r="W455" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" s="10">
+        <v>44329</v>
+      </c>
+      <c r="B456" s="2">
+        <v>454</v>
+      </c>
+      <c r="C456" s="1">
+        <v>839059</v>
+      </c>
+      <c r="D456" s="1">
+        <v>29</v>
+      </c>
+      <c r="E456" s="1">
+        <v>792</v>
+      </c>
+      <c r="F456" s="1">
+        <v>6379</v>
+      </c>
+      <c r="G456" s="1">
+        <v>0</v>
+      </c>
+      <c r="H456" s="3">
+        <v>795200</v>
+      </c>
+      <c r="I456" s="3">
+        <v>1416</v>
+      </c>
+      <c r="J456" s="3">
+        <v>165769</v>
+      </c>
+      <c r="K456" s="3">
+        <v>28970</v>
+      </c>
+      <c r="L456" s="3">
+        <v>82</v>
+      </c>
+      <c r="M456" s="4">
+        <v>634893</v>
+      </c>
+      <c r="N456" s="5">
+        <v>933</v>
+      </c>
+      <c r="O456" s="4">
+        <v>13195</v>
+      </c>
+      <c r="P456" s="6">
+        <v>10444</v>
+      </c>
+      <c r="Q456" s="4">
+        <v>16</v>
+      </c>
+      <c r="R456" s="7">
+        <v>1069770</v>
+      </c>
+      <c r="S456" s="7">
+        <v>953</v>
+      </c>
+      <c r="T456" s="7">
+        <v>20268</v>
+      </c>
+      <c r="U456" s="7">
+        <v>29308</v>
+      </c>
+      <c r="V456" s="7">
+        <v>75</v>
+      </c>
+      <c r="W456" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" s="10">
+        <v>44330</v>
+      </c>
+      <c r="B457" s="2">
+        <v>455</v>
+      </c>
+      <c r="C457" s="1">
+        <v>839079</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20</v>
+      </c>
+      <c r="E457" s="1">
+        <v>749</v>
+      </c>
+      <c r="F457" s="1">
+        <v>6380</v>
+      </c>
+      <c r="G457" s="1">
+        <v>1</v>
+      </c>
+      <c r="H457" s="3">
+        <v>796390</v>
+      </c>
+      <c r="I457" s="3">
+        <v>1190</v>
+      </c>
+      <c r="J457" s="3">
+        <v>158458</v>
+      </c>
+      <c r="K457" s="3">
+        <v>29041</v>
+      </c>
+      <c r="L457" s="3">
+        <v>71</v>
+      </c>
+      <c r="M457" s="4">
+        <v>635780</v>
+      </c>
+      <c r="N457" s="5">
+        <v>887</v>
+      </c>
+      <c r="O457" s="4">
+        <v>12802</v>
+      </c>
+      <c r="P457" s="6">
+        <v>10455</v>
+      </c>
+      <c r="Q457" s="4">
+        <v>11</v>
+      </c>
+      <c r="R457" s="7">
+        <v>1070605</v>
+      </c>
+      <c r="S457" s="7">
+        <v>835</v>
+      </c>
+      <c r="T457" s="7">
+        <v>19163</v>
+      </c>
+      <c r="U457" s="7">
+        <v>29413</v>
+      </c>
+      <c r="V457" s="7">
+        <v>105</v>
+      </c>
+      <c r="W457" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" s="10">
+        <v>44331</v>
+      </c>
+      <c r="B458" s="2">
+        <v>456</v>
+      </c>
+      <c r="C458" s="1">
+        <v>839117</v>
+      </c>
+      <c r="D458" s="1">
+        <v>38</v>
+      </c>
+      <c r="E458" s="1">
+        <v>755</v>
+      </c>
+      <c r="F458" s="1">
+        <v>6381</v>
+      </c>
+      <c r="G458" s="1">
+        <v>1</v>
+      </c>
+      <c r="H458" s="3">
+        <v>797429</v>
+      </c>
+      <c r="I458" s="3">
+        <v>1039</v>
+      </c>
+      <c r="J458" s="3">
+        <v>149707</v>
+      </c>
+      <c r="K458" s="3">
+        <v>29114</v>
+      </c>
+      <c r="L458" s="3">
+        <v>73</v>
+      </c>
+      <c r="M458" s="4">
+        <v>636424</v>
+      </c>
+      <c r="N458" s="5">
+        <v>644</v>
+      </c>
+      <c r="O458" s="4">
+        <v>11151</v>
+      </c>
+      <c r="P458" s="6">
+        <v>10470</v>
+      </c>
+      <c r="Q458" s="4">
+        <v>15</v>
+      </c>
+      <c r="R458" s="7">
+        <v>1071334</v>
+      </c>
+      <c r="S458" s="7">
+        <v>729</v>
+      </c>
+      <c r="T458" s="7">
+        <v>18027</v>
+      </c>
+      <c r="U458" s="7">
+        <v>29485</v>
+      </c>
+      <c r="V458" s="7">
+        <v>72</v>
+      </c>
+      <c r="W458" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" s="10">
+        <v>44332</v>
+      </c>
+      <c r="B459" s="2">
+        <v>457</v>
+      </c>
+      <c r="C459" s="1">
+        <v>839119</v>
+      </c>
+      <c r="D459" s="1">
+        <v>2</v>
+      </c>
+      <c r="E459" s="1">
+        <v>665</v>
+      </c>
+      <c r="F459" s="1">
+        <v>6382</v>
+      </c>
+      <c r="G459" s="1">
+        <v>1</v>
+      </c>
+      <c r="H459" s="3">
+        <v>798147</v>
+      </c>
+      <c r="I459" s="3">
+        <v>718</v>
+      </c>
+      <c r="J459" s="3">
+        <v>143884</v>
+      </c>
+      <c r="K459" s="3">
+        <v>29175</v>
+      </c>
+      <c r="L459" s="3">
+        <v>61</v>
+      </c>
+      <c r="M459" s="4">
+        <v>637097</v>
+      </c>
+      <c r="N459" s="5">
+        <v>673</v>
+      </c>
+      <c r="O459" s="4">
+        <v>10475</v>
+      </c>
+      <c r="P459" s="6">
+        <v>10474</v>
+      </c>
+      <c r="Q459" s="4">
+        <v>4</v>
+      </c>
+      <c r="R459" s="7">
+        <v>1071899</v>
+      </c>
+      <c r="S459" s="7">
+        <v>565</v>
+      </c>
+      <c r="T459" s="7">
+        <v>17231</v>
+      </c>
+      <c r="U459" s="7">
+        <v>29523</v>
+      </c>
+      <c r="V459" s="7">
+        <v>38</v>
+      </c>
+      <c r="W459" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" s="10">
+        <v>44333</v>
+      </c>
+      <c r="B460" s="2">
+        <v>458</v>
+      </c>
+      <c r="C460" s="1">
+        <v>839159</v>
+      </c>
+      <c r="D460" s="1">
+        <v>40</v>
+      </c>
+      <c r="E460" s="1">
+        <v>677</v>
+      </c>
+      <c r="F460" s="1">
+        <v>6389</v>
+      </c>
+      <c r="G460" s="1">
+        <v>7</v>
+      </c>
+      <c r="H460" s="3">
+        <v>798573</v>
+      </c>
+      <c r="I460" s="3">
+        <v>426</v>
+      </c>
+      <c r="J460" s="3">
+        <v>138384</v>
+      </c>
+      <c r="K460" s="3">
+        <v>29213</v>
+      </c>
+      <c r="L460" s="3">
+        <v>38</v>
+      </c>
+      <c r="M460" s="4">
+        <v>637573</v>
+      </c>
+      <c r="N460" s="5">
+        <v>476</v>
+      </c>
+      <c r="O460" s="4">
+        <v>9786</v>
+      </c>
+      <c r="P460" s="6">
+        <v>10480</v>
+      </c>
+      <c r="Q460" s="4">
+        <v>6</v>
+      </c>
+      <c r="R460" s="7">
+        <v>1072291</v>
+      </c>
+      <c r="S460" s="7">
+        <v>392</v>
+      </c>
+      <c r="T460" s="7">
+        <v>16421</v>
+      </c>
+      <c r="U460" s="7">
+        <v>29571</v>
+      </c>
+      <c r="V460" s="7">
+        <v>48</v>
+      </c>
+      <c r="W460" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" s="10">
+        <v>44334</v>
+      </c>
+      <c r="B461" s="2">
+        <v>459</v>
+      </c>
+      <c r="C461" s="1">
+        <v>839167</v>
+      </c>
+      <c r="D461" s="1">
+        <v>8</v>
+      </c>
+      <c r="E461" s="1">
+        <v>631</v>
+      </c>
+      <c r="F461" s="1">
+        <v>6392</v>
+      </c>
+      <c r="G461" s="1">
+        <v>3</v>
+      </c>
+      <c r="H461" s="3">
+        <v>798955</v>
+      </c>
+      <c r="I461" s="3">
+        <v>382</v>
+      </c>
+      <c r="J461" s="3">
+        <v>128714</v>
+      </c>
+      <c r="K461" s="3">
+        <v>29277</v>
+      </c>
+      <c r="L461" s="3">
+        <v>64</v>
+      </c>
+      <c r="M461" s="4">
+        <v>638155</v>
+      </c>
+      <c r="N461" s="5">
+        <v>582</v>
+      </c>
+      <c r="O461" s="4">
+        <v>8858</v>
+      </c>
+      <c r="P461" s="6">
+        <v>10499</v>
+      </c>
+      <c r="Q461" s="4">
+        <v>19</v>
+      </c>
+      <c r="R461" s="7">
+        <v>1072972</v>
+      </c>
+      <c r="S461" s="7">
+        <v>681</v>
+      </c>
+      <c r="T461" s="7">
+        <v>15898</v>
+      </c>
+      <c r="U461" s="7">
+        <v>29662</v>
+      </c>
+      <c r="V461" s="7">
+        <v>91</v>
+      </c>
+      <c r="W461" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" s="10">
+        <v>44335</v>
+      </c>
+      <c r="B462" s="2">
+        <v>460</v>
+      </c>
+      <c r="C462" s="1">
+        <v>839221</v>
+      </c>
+      <c r="D462" s="1">
+        <v>54</v>
+      </c>
+      <c r="E462" s="1">
+        <v>594</v>
+      </c>
+      <c r="F462" s="1">
+        <v>6395</v>
+      </c>
+      <c r="G462" s="1">
+        <v>3</v>
+      </c>
+      <c r="H462" s="3">
+        <v>799588</v>
+      </c>
+      <c r="I462" s="3">
+        <v>633</v>
+      </c>
+      <c r="J462" s="3">
+        <v>121746</v>
+      </c>
+      <c r="K462" s="3">
+        <v>29329</v>
+      </c>
+      <c r="L462" s="3">
+        <v>52</v>
+      </c>
+      <c r="M462" s="4">
+        <v>639054</v>
+      </c>
+      <c r="N462" s="5">
+        <v>899</v>
+      </c>
+      <c r="O462" s="4">
+        <v>9748</v>
+      </c>
+      <c r="P462" s="6">
+        <v>10508</v>
+      </c>
+      <c r="Q462" s="4">
+        <v>9</v>
+      </c>
+      <c r="R462" s="7">
+        <v>1073679</v>
+      </c>
+      <c r="S462" s="7">
+        <v>707</v>
+      </c>
+      <c r="T462" s="7">
+        <v>15409</v>
+      </c>
+      <c r="U462" s="7">
+        <v>29716</v>
+      </c>
+      <c r="V462" s="7">
+        <v>54</v>
+      </c>
+      <c r="W462" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" s="10">
+        <v>44336</v>
+      </c>
+      <c r="B463" s="2">
+        <v>461</v>
+      </c>
+      <c r="C463" s="1">
+        <v>839263</v>
+      </c>
+      <c r="D463" s="1">
+        <v>42</v>
+      </c>
+      <c r="E463" s="1">
+        <v>572</v>
+      </c>
+      <c r="F463" s="1">
+        <v>6396</v>
+      </c>
+      <c r="G463" s="1">
+        <v>1</v>
+      </c>
+      <c r="H463" s="3">
+        <v>800368</v>
+      </c>
+      <c r="I463" s="3">
+        <v>780</v>
+      </c>
+      <c r="J463" s="3">
+        <v>115029</v>
+      </c>
+      <c r="K463" s="3">
+        <v>29380</v>
+      </c>
+      <c r="L463" s="3">
+        <v>51</v>
+      </c>
+      <c r="M463" s="4">
+        <v>639616</v>
+      </c>
+      <c r="N463" s="5">
+        <v>562</v>
+      </c>
+      <c r="O463" s="4">
+        <v>9333</v>
+      </c>
+      <c r="P463" s="6">
+        <v>10527</v>
+      </c>
+      <c r="Q463" s="4">
+        <v>19</v>
+      </c>
+      <c r="R463" s="7">
+        <v>1074297</v>
+      </c>
+      <c r="S463" s="7">
+        <v>618</v>
+      </c>
+      <c r="T463" s="7">
+        <v>15145</v>
+      </c>
+      <c r="U463" s="7">
+        <v>29777</v>
+      </c>
+      <c r="V463" s="7">
+        <v>61</v>
+      </c>
+      <c r="W463" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" s="10">
+        <v>44337</v>
+      </c>
+      <c r="B464" s="2">
+        <v>462</v>
+      </c>
+      <c r="C464" s="1">
+        <v>839290</v>
+      </c>
+      <c r="D464" s="1">
+        <v>27</v>
+      </c>
+      <c r="E464" s="1">
+        <v>562</v>
+      </c>
+      <c r="F464" s="1">
+        <v>6397</v>
+      </c>
+      <c r="G464" s="1">
+        <v>1</v>
+      </c>
+      <c r="H464" s="3">
+        <v>801025</v>
+      </c>
+      <c r="I464" s="3">
+        <v>657</v>
+      </c>
+      <c r="J464" s="3">
+        <v>110034</v>
+      </c>
+      <c r="K464" s="3">
+        <v>29427</v>
+      </c>
+      <c r="L464" s="3">
+        <v>47</v>
+      </c>
+      <c r="M464" s="4">
+        <v>640293</v>
+      </c>
+      <c r="N464" s="5">
+        <v>677</v>
+      </c>
+      <c r="O464" s="4">
+        <v>8922</v>
+      </c>
+      <c r="P464" s="6">
+        <v>10534</v>
+      </c>
+      <c r="Q464" s="4">
+        <v>7</v>
+      </c>
+      <c r="R464" s="7">
+        <v>1074781</v>
+      </c>
+      <c r="S464" s="7">
+        <v>484</v>
+      </c>
+      <c r="T464" s="7">
+        <v>14818</v>
+      </c>
+      <c r="U464" s="7">
+        <v>29826</v>
+      </c>
+      <c r="V464" s="7">
+        <v>49</v>
+      </c>
+      <c r="W464" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" s="10">
+        <v>44338</v>
+      </c>
+      <c r="B465" s="2">
+        <v>463</v>
+      </c>
+      <c r="C465" s="1">
+        <v>839308</v>
+      </c>
+      <c r="D465" s="1">
+        <v>18</v>
+      </c>
+      <c r="E465" s="1">
+        <v>560</v>
+      </c>
+      <c r="F465" s="1">
+        <v>6397</v>
+      </c>
+      <c r="G465" s="1">
+        <v>0</v>
+      </c>
+      <c r="H465" s="3">
+        <v>801672</v>
+      </c>
+      <c r="I465" s="3">
+        <v>647</v>
+      </c>
+      <c r="J465" s="3">
+        <v>106645</v>
+      </c>
+      <c r="K465" s="3">
+        <v>29475</v>
+      </c>
+      <c r="L465" s="3">
+        <v>48</v>
+      </c>
+      <c r="M465" s="4">
+        <v>640876</v>
+      </c>
+      <c r="N465" s="5">
+        <v>583</v>
+      </c>
+      <c r="O465" s="4">
+        <v>8337</v>
+      </c>
+      <c r="P465" s="6">
+        <v>10541</v>
+      </c>
+      <c r="Q465" s="4">
+        <v>7</v>
+      </c>
+      <c r="R465" s="7">
+        <v>1075236</v>
+      </c>
+      <c r="S465" s="7">
+        <v>455</v>
+      </c>
+      <c r="T465" s="7">
+        <v>13746</v>
+      </c>
+      <c r="U465" s="7">
+        <v>29885</v>
+      </c>
+      <c r="V465" s="7">
+        <v>59</v>
+      </c>
+      <c r="W465" s="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" s="10">
+        <v>44339</v>
+      </c>
+      <c r="B466" s="2">
+        <v>464</v>
+      </c>
+      <c r="C466" s="1">
+        <v>839319</v>
+      </c>
+      <c r="D466" s="1">
+        <v>11</v>
+      </c>
+      <c r="E466" s="1">
+        <v>510</v>
+      </c>
+      <c r="F466" s="1">
+        <v>6404</v>
+      </c>
+      <c r="G466" s="1">
+        <v>7</v>
+      </c>
+      <c r="H466" s="3">
+        <v>802088</v>
+      </c>
+      <c r="I466" s="3">
+        <v>416</v>
+      </c>
+      <c r="J466" s="3">
+        <v>103749</v>
+      </c>
+      <c r="K466" s="3">
+        <v>29519</v>
+      </c>
+      <c r="L466" s="3">
+        <v>44</v>
+      </c>
+      <c r="M466" s="4">
+        <v>641380</v>
+      </c>
+      <c r="N466" s="5">
+        <v>504</v>
+      </c>
+      <c r="O466" s="4">
+        <v>7945</v>
+      </c>
+      <c r="P466" s="6">
+        <v>10546</v>
+      </c>
+      <c r="Q466" s="4">
+        <v>5</v>
+      </c>
+      <c r="R466" s="7">
+        <v>1075543</v>
+      </c>
+      <c r="S466" s="7">
+        <v>307</v>
+      </c>
+      <c r="T466" s="7">
+        <v>12714</v>
+      </c>
+      <c r="U466" s="7">
+        <v>29941</v>
+      </c>
+      <c r="V466" s="7">
+        <v>56</v>
+      </c>
+      <c r="W466" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" s="10">
+        <v>44340</v>
+      </c>
+      <c r="B467" s="2">
+        <v>465</v>
+      </c>
+      <c r="C467" s="1">
+        <v>839361</v>
+      </c>
+      <c r="D467" s="1">
+        <v>42</v>
+      </c>
+      <c r="E467" s="1">
+        <v>514</v>
+      </c>
+      <c r="F467" s="1">
+        <v>6406</v>
+      </c>
+      <c r="G467" s="1">
+        <v>2</v>
+      </c>
+      <c r="H467" s="3">
+        <v>802346</v>
+      </c>
+      <c r="I467" s="3">
+        <v>258</v>
+      </c>
+      <c r="J467" s="3">
+        <v>102581</v>
+      </c>
+      <c r="K467" s="3">
+        <v>29560</v>
+      </c>
+      <c r="L467" s="3">
+        <v>41</v>
+      </c>
+      <c r="M467" s="4">
+        <v>641740</v>
+      </c>
+      <c r="N467" s="5">
+        <v>360</v>
+      </c>
+      <c r="O467" s="4">
+        <v>7525</v>
+      </c>
+      <c r="P467" s="6">
+        <v>10547</v>
+      </c>
+      <c r="Q467" s="4">
+        <v>1</v>
+      </c>
+      <c r="R467" s="7">
+        <v>1075773</v>
+      </c>
+      <c r="S467" s="7">
+        <v>230</v>
+      </c>
+      <c r="T467" s="7">
+        <v>11812</v>
+      </c>
+      <c r="U467" s="7">
+        <v>29977</v>
+      </c>
+      <c r="V467" s="7">
+        <v>36</v>
+      </c>
+      <c r="W467" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" s="10">
+        <v>44341</v>
+      </c>
+      <c r="B468" s="2">
+        <v>466</v>
+      </c>
+      <c r="C468" s="1">
+        <v>839389</v>
+      </c>
+      <c r="D468" s="1">
+        <v>28</v>
+      </c>
+      <c r="E468" s="1">
+        <v>460</v>
+      </c>
+      <c r="F468" s="1">
+        <v>6406</v>
+      </c>
+      <c r="G468" s="1">
+        <v>0</v>
+      </c>
+      <c r="H468" s="3">
+        <v>802510</v>
+      </c>
+      <c r="I468" s="3">
+        <v>164</v>
+      </c>
+      <c r="J468" s="3">
+        <v>101537</v>
+      </c>
+      <c r="K468" s="3">
+        <v>29581</v>
+      </c>
+      <c r="L468" s="3">
+        <v>21</v>
+      </c>
+      <c r="M468" s="4">
+        <v>642138</v>
+      </c>
+      <c r="N468" s="5">
+        <v>398</v>
+      </c>
+      <c r="O468" s="4">
+        <v>7038</v>
+      </c>
+      <c r="P468" s="6">
+        <v>10551</v>
+      </c>
+      <c r="Q468" s="4">
+        <v>4</v>
+      </c>
+      <c r="R468" s="7">
+        <v>1076154</v>
+      </c>
+      <c r="S468" s="7">
+        <v>381</v>
+      </c>
+      <c r="T468" s="7">
+        <v>10999</v>
+      </c>
+      <c r="U468" s="7">
+        <v>30040</v>
+      </c>
+      <c r="V468" s="7">
+        <v>63</v>
+      </c>
+      <c r="W468" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" s="10">
+        <v>44342</v>
+      </c>
+      <c r="B469" s="2">
+        <v>467</v>
+      </c>
+      <c r="C469" s="1">
+        <v>839408</v>
+      </c>
+      <c r="D469" s="1">
+        <v>19</v>
+      </c>
+      <c r="E469" s="1">
+        <v>436</v>
+      </c>
+      <c r="F469" s="1">
+        <v>6406</v>
+      </c>
+      <c r="G469" s="1">
+        <v>0</v>
+      </c>
+      <c r="H469" s="3">
+        <v>802723</v>
+      </c>
+      <c r="I469" s="3">
+        <v>213</v>
+      </c>
+      <c r="J469" s="3">
+        <v>98019</v>
+      </c>
+      <c r="K469" s="3">
+        <v>29622</v>
+      </c>
+      <c r="L469" s="3">
+        <v>41</v>
+      </c>
+      <c r="M469" s="4">
+        <v>642583</v>
+      </c>
+      <c r="N469" s="5">
+        <v>445</v>
+      </c>
+      <c r="O469" s="4">
+        <v>6564</v>
+      </c>
+      <c r="P469" s="6">
+        <v>10566</v>
+      </c>
+      <c r="Q469" s="4">
+        <v>15</v>
+      </c>
+      <c r="R469" s="7">
+        <v>1076533</v>
+      </c>
+      <c r="S469" s="7">
+        <v>379</v>
+      </c>
+      <c r="T469" s="7">
+        <v>10539</v>
+      </c>
+      <c r="U469" s="7">
+        <v>30092</v>
+      </c>
+      <c r="V469" s="7">
+        <v>52</v>
+      </c>
+      <c r="W469" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" s="10">
+        <v>44343</v>
+      </c>
+      <c r="B470" s="2">
+        <v>468</v>
+      </c>
+      <c r="C470" s="1">
+        <v>839420</v>
+      </c>
+      <c r="D470" s="1">
+        <v>12</v>
+      </c>
+      <c r="E470" s="1">
+        <v>415</v>
+      </c>
+      <c r="F470" s="1">
+        <v>6406</v>
+      </c>
+      <c r="G470" s="1">
+        <v>0</v>
+      </c>
+      <c r="H470" s="3">
+        <v>803119</v>
+      </c>
+      <c r="I470" s="3">
+        <v>396</v>
+      </c>
+      <c r="J470" s="3">
+        <v>91164</v>
+      </c>
+      <c r="K470" s="3">
+        <v>29654</v>
+      </c>
+      <c r="L470" s="3">
+        <v>32</v>
+      </c>
+      <c r="M470" s="4">
+        <v>643168</v>
+      </c>
+      <c r="N470" s="5">
+        <v>585</v>
+      </c>
+      <c r="O470" s="4">
+        <v>6336</v>
+      </c>
+      <c r="P470" s="6">
+        <v>10573</v>
+      </c>
+      <c r="Q470" s="4">
+        <v>7</v>
+      </c>
+      <c r="R470" s="7">
+        <v>1076840</v>
+      </c>
+      <c r="S470" s="7">
+        <v>307</v>
+      </c>
+      <c r="T470" s="7">
+        <v>10063</v>
+      </c>
+      <c r="U470" s="7">
+        <v>30131</v>
+      </c>
+      <c r="V470" s="7">
+        <v>39</v>
+      </c>
+      <c r="W470" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" s="10">
+        <v>44344</v>
+      </c>
+      <c r="B471" s="2">
+        <v>469</v>
+      </c>
+      <c r="C471" s="1">
+        <v>839433</v>
+      </c>
+      <c r="D471" s="1">
+        <v>13</v>
+      </c>
+      <c r="E471" s="1">
+        <v>392</v>
+      </c>
+      <c r="F471" s="1">
+        <v>6407</v>
+      </c>
+      <c r="G471" s="1">
+        <v>1</v>
+      </c>
+      <c r="H471" s="3">
+        <v>803567</v>
+      </c>
+      <c r="I471" s="3">
+        <v>448</v>
+      </c>
+      <c r="J471" s="3">
+        <v>84719</v>
+      </c>
+      <c r="K471" s="3">
+        <v>29682</v>
+      </c>
+      <c r="L471" s="3">
+        <v>28</v>
+      </c>
+      <c r="M471" s="4">
+        <v>643709</v>
+      </c>
+      <c r="N471" s="5">
+        <v>541</v>
+      </c>
+      <c r="O471" s="4">
+        <v>6306</v>
+      </c>
+      <c r="P471" s="6">
+        <v>10588</v>
+      </c>
+      <c r="Q471" s="4">
+        <v>15</v>
+      </c>
+      <c r="R471" s="7">
+        <v>1077161</v>
+      </c>
+      <c r="S471" s="7">
+        <v>321</v>
+      </c>
+      <c r="T471" s="7">
+        <v>9258</v>
+      </c>
+      <c r="U471" s="7">
+        <v>30174</v>
+      </c>
+      <c r="V471" s="7">
+        <v>43</v>
+      </c>
+      <c r="W471" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" s="10">
+        <v>44345</v>
+      </c>
+      <c r="B472" s="2">
+        <v>470</v>
+      </c>
+      <c r="C472" s="1">
+        <v>839453</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20</v>
+      </c>
+      <c r="E472" s="1">
+        <v>398</v>
+      </c>
+      <c r="F472" s="1">
+        <v>6407</v>
+      </c>
+      <c r="G472" s="1">
+        <v>0</v>
+      </c>
+      <c r="H472" s="3">
+        <v>804032</v>
+      </c>
+      <c r="I472" s="3">
+        <v>465</v>
+      </c>
+      <c r="J472" s="3">
+        <v>82075</v>
+      </c>
+      <c r="K472" s="3">
+        <v>29709</v>
+      </c>
+      <c r="L472" s="3">
+        <v>27</v>
+      </c>
+      <c r="M472" s="4">
+        <v>644207</v>
+      </c>
+      <c r="N472" s="5">
+        <v>498</v>
+      </c>
+      <c r="O472" s="4">
+        <v>5943</v>
+      </c>
+      <c r="P472" s="6">
+        <v>10592</v>
+      </c>
+      <c r="Q472" s="4">
+        <v>4</v>
+      </c>
+      <c r="R472" s="7">
+        <v>1077426</v>
+      </c>
+      <c r="S472" s="7">
+        <v>265</v>
+      </c>
+      <c r="T472" s="7">
+        <v>8640</v>
+      </c>
+      <c r="U472" s="7">
+        <v>30247</v>
+      </c>
+      <c r="V472" s="7">
+        <v>73</v>
+      </c>
+      <c r="W472" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" s="10">
+        <v>44346</v>
+      </c>
+      <c r="B473" s="2">
+        <v>471</v>
+      </c>
+      <c r="C473" s="1">
+        <v>839458</v>
+      </c>
+      <c r="D473" s="1">
+        <v>5</v>
+      </c>
+      <c r="E473" s="1">
+        <v>354</v>
+      </c>
+      <c r="F473" s="1">
+        <v>6411</v>
+      </c>
+      <c r="G473" s="1">
+        <v>4</v>
+      </c>
+      <c r="H473" s="3">
+        <v>804382</v>
+      </c>
+      <c r="I473" s="3">
+        <v>350</v>
+      </c>
+      <c r="J473" s="3">
+        <v>78625</v>
+      </c>
+      <c r="K473" s="3">
+        <v>29728</v>
+      </c>
+      <c r="L473" s="3">
+        <v>19</v>
+      </c>
+      <c r="M473" s="4">
+        <v>644586</v>
+      </c>
+      <c r="N473" s="5">
+        <v>379</v>
+      </c>
+      <c r="O473" s="4">
+        <v>5678</v>
+      </c>
+      <c r="P473" s="6">
+        <v>10596</v>
+      </c>
+      <c r="Q473" s="4">
+        <v>4</v>
+      </c>
+      <c r="R473" s="7">
+        <v>1077584</v>
+      </c>
+      <c r="S473" s="7">
+        <v>158</v>
+      </c>
+      <c r="T473" s="7">
+        <v>8135</v>
+      </c>
+      <c r="U473" s="7">
+        <v>30276</v>
+      </c>
+      <c r="V473" s="7">
+        <v>29</v>
+      </c>
+      <c r="W473" s="30">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
